--- a/teste1.xlsx
+++ b/teste1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desenvolvimento\06-teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54A2214-A132-48AB-8A69-480BD32A4073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90797B7-DC7D-47D0-B36F-99D24A74E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -428,7 +428,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
